--- a/documents/Projektmanagement/Projektplanung.xlsx
+++ b/documents/Projektmanagement/Projektplanung.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268031B2-EA78-4170-9DC6-8E580C6DA67E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4060C9A0-B422-464F-9A3D-C7DECB0EC1E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>Claude</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>Strübi</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +99,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -109,12 +118,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -395,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -522,11 +532,11 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>0</v>
@@ -543,11 +553,11 @@
       <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>1</v>
+      <c r="K4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -566,11 +576,11 @@
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1</v>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>0</v>
@@ -581,11 +591,11 @@
       <c r="J5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>2</v>
+      <c r="K5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -610,20 +620,20 @@
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>0</v>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -639,6 +649,11 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
